--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>885.4081981698246</v>
+        <v>531.1743708687662</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.87819816981671</v>
+        <v>41.1743708687662</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.89843453976553</v>
+        <v>18.16405756627589</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.89843453976553</v>
+        <v>18.16405756627589</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.9200000000078</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.61</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -642,9 +642,53 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -766,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -940,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -948,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.23760250281424</v>
+        <v>22.31890060157826</v>
       </c>
     </row>
     <row r="9">
@@ -996,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.66154480832267</v>
+        <v>29.23760250281424</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,10 +1089,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1059,10 +1103,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1073,10 +1117,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1084,13 +1128,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1098,13 +1142,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1118,9 +1162,65 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1223,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.5300000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>117.09</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.2400000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>111.9900000000004</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.0450000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>115.3250000000004</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>112.3300000000004</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>110.3950000000004</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -1498,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>108.5300000000007</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>115.89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>117.09</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>110.2400000000007</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.9900000000004</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>117.0450000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.3250000000004</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>112.3300000000004</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>110.3950000000004</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -1608,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.9950000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>105.5100000000001</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>104.6650000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.5050000000001</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60500000000008</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.530000000000726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1710,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1721,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1732,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1743,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.24000000000071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1754,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.99000000000044</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1765,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.04500000000044</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1776,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.32500000000044</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1787,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.33000000000044</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1798,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.39500000000044</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1809,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.995000000000083</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1820,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.510000000000066</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1831,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.665000000000081</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1842,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.505000000000077</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1853,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1911,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1933,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1944,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1955,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1966,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1977,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1988,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1999,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2010,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2021,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2032,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2043,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2054,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2076,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2087,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2109,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2120,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2131,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2142,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2153,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2164,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2305,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2216,7 +2316,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2227,7 +2327,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2238,7 +2338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2252,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2260,10 +2360,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2271,10 +2371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2282,10 +2382,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2293,10 +2393,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2307,53 +2407,9 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
